--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2303169D-DF39-4DED-A596-51C3EF64FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA2DC5-BBA9-4CC6-BD05-EF04D039FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2640" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,13 +49,44 @@
   </si>
   <si>
     <t>LabSignInTime</t>
+  </si>
+  <si>
+    <t>LabHours</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>4/24/2023 - What are STD's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/24/2023 </t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>4/24/2023 12:48:20 AM</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,50 +397,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA2DC5-BBA9-4CC6-BD05-EF04D039FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0932DB-A7A7-4860-BE02-3CEB1A0D684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2640" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="4050" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,44 +52,22 @@
   </si>
   <si>
     <t>LabHours</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Keating</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>4/24/2023 - What are STD's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/24/2023 </t>
-  </si>
-  <si>
-    <t>4:00PM</t>
-  </si>
-  <si>
-    <t>6:00PM</t>
-  </si>
-  <si>
-    <t>4/24/2023 12:48:20 AM</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,83 +375,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0932DB-A7A7-4860-BE02-3CEB1A0D684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CB7A6-5570-4ABA-9327-EA36E9F9333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="4050" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31470" yWindow="3525" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +372,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +416,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CB7A6-5570-4ABA-9327-EA36E9F9333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BA8B6-EA0D-4836-AFAE-C91D41E0CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31470" yWindow="3525" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,13 +52,71 @@
   </si>
   <si>
     <t>LabHours</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>4/24/2023 - Who are Doctors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/24/2023 </t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>4/28/2023 10:39:29 PM</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>4/28/2023 10:49:16 PM</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>OCC THERAPY</t>
+  </si>
+  <si>
+    <t>4/28/2023 11:14:24 PM</t>
+  </si>
+  <si>
+    <t>4/22/2023 - Needle Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/22/2023 </t>
+  </si>
+  <si>
+    <t>6:45PM</t>
+  </si>
+  <si>
+    <t>4/28/2023 11:32:48 PM</t>
+  </si>
+  <si>
+    <t>02:45:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,52 +427,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BA8B6-EA0D-4836-AFAE-C91D41E0CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFFE1D-ED46-416F-AF2E-F3EF7FA6FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="3525" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,71 +52,13 @@
   </si>
   <si>
     <t>LabHours</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
-    <t>4/24/2023 - Who are Doctors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/24/2023 </t>
-  </si>
-  <si>
-    <t>4:00PM</t>
-  </si>
-  <si>
-    <t>6:00PM</t>
-  </si>
-  <si>
-    <t>4/28/2023 10:39:29 PM</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>4/28/2023 10:49:16 PM</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>OCC THERAPY</t>
-  </si>
-  <si>
-    <t>4/28/2023 11:14:24 PM</t>
-  </si>
-  <si>
-    <t>4/22/2023 - Needle Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/22/2023 </t>
-  </si>
-  <si>
-    <t>6:45PM</t>
-  </si>
-  <si>
-    <t>4/28/2023 11:32:48 PM</t>
-  </si>
-  <si>
-    <t>02:45:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,169 +369,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFFE1D-ED46-416F-AF2E-F3EF7FA6FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83C245-9282-4DF9-80CE-BF65FB8A35F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>LabName</t>
-  </si>
-  <si>
-    <t>LabDay</t>
-  </si>
-  <si>
-    <t>LabStart</t>
-  </si>
-  <si>
-    <t>LabEnd</t>
-  </si>
-  <si>
-    <t>LabSignInTime</t>
-  </si>
-  <si>
-    <t>LabHours</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,53 +341,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83C245-9282-4DF9-80CE-BF65FB8A35F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732F25F-3DDD-4243-9071-3062741F240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:XFD1048576"/>
+      <selection activeCell="J10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732F25F-3DDD-4243-9071-3062741F240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F154C-6A67-4297-9BDF-F163A3562FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29655" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>LabName</t>
+  </si>
+  <si>
+    <t>LabDay</t>
+  </si>
+  <si>
+    <t>LabStart</t>
+  </si>
+  <si>
+    <t>LabEnd</t>
+  </si>
+  <si>
+    <t>LabSignInTime</t>
+  </si>
+  <si>
+    <t>LabHours</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>4/23/2023 - What is Drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/23/2023 </t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>10/1/2023 5:06:39 PM</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>10/1/2023 5:24:35 PM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,15 +403,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F154C-6A67-4297-9BDF-F163A3562FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93689216-CF53-4C88-B2FB-FE3304735B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29655" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,74 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>LabName</t>
-  </si>
-  <si>
-    <t>LabDay</t>
-  </si>
-  <si>
-    <t>LabStart</t>
-  </si>
-  <si>
-    <t>LabEnd</t>
-  </si>
-  <si>
-    <t>LabSignInTime</t>
-  </si>
-  <si>
-    <t>LabHours</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Keating</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>4/23/2023 - What is Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/23/2023 </t>
-  </si>
-  <si>
-    <t>4:00PM</t>
-  </si>
-  <si>
-    <t>6:00PM</t>
-  </si>
-  <si>
-    <t>10/1/2023 5:06:39 PM</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>10/1/2023 5:24:35 PM</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,104 +341,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93689216-CF53-4C88-B2FB-FE3304735B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67F3BF-81A5-41BD-A86A-04D055D857F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29655" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/SignInSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67F3BF-81A5-41BD-A86A-04D055D857F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA955B17-6640-4F02-BB37-561AC12F1B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
